--- a/松林村股份经济合作社用户信息表模板.xlsx
+++ b/松林村股份经济合作社用户信息表模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projs\eclipse\vprojs\zero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A8C592-4F4C-467A-B6DC-58AD94CE6E02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB4117E-FF39-4D2A-8B63-2D93E07C53A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2712" yWindow="0" windowWidth="21492" windowHeight="10356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3648" yWindow="0" windowWidth="21492" windowHeight="10356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="147">
   <si>
     <t>姓名</t>
   </si>
@@ -376,10 +376,6 @@
   </si>
   <si>
     <t>13946365376</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13956374374</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -985,8 +981,8 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2">
         <v>13096793288</v>
@@ -1060,7 +1056,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2">
         <v>13984977767</v>
@@ -1086,7 +1082,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2">
         <v>15120202698</v>
@@ -1112,7 +1108,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2">
         <v>13885293681</v>
@@ -1138,7 +1134,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2">
         <v>13765268087</v>
@@ -1164,7 +1160,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1190,7 +1186,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -1216,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
@@ -1242,7 +1238,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2">
         <v>15085569858</v>
@@ -1268,7 +1264,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -1294,7 +1290,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>37</v>
@@ -1320,7 +1316,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>39</v>
@@ -1346,7 +1342,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
@@ -1372,7 +1368,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2">
         <v>18212214819</v>
@@ -1398,7 +1394,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2">
         <v>13885254676</v>
@@ -1424,7 +1420,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2">
         <v>15120225983</v>
@@ -1450,7 +1446,7 @@
         <v>45</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2">
         <v>18984253533</v>
@@ -1476,7 +1472,7 @@
         <v>46</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="2">
         <v>15120146199</v>
@@ -1502,7 +1498,7 @@
         <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="2">
         <v>18212136029</v>
@@ -1528,7 +1524,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="2">
         <v>18311668217</v>
@@ -1554,7 +1550,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="2">
         <v>15985224166</v>
@@ -1580,7 +1576,7 @@
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2">
         <v>13765957927</v>
@@ -1606,7 +1602,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="2">
         <v>15120143756</v>
@@ -1632,7 +1628,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="2">
         <v>13984960537</v>
@@ -1658,7 +1654,7 @@
         <v>53</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="2">
         <v>13984245318</v>
@@ -1684,7 +1680,7 @@
         <v>54</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="2">
         <v>15085556096</v>
@@ -1710,7 +1706,7 @@
         <v>55</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="2">
         <v>13628537859</v>
@@ -1736,7 +1732,7 @@
         <v>56</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="2">
         <v>15985089074</v>
@@ -1762,7 +1758,7 @@
         <v>57</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="2">
         <v>13885218244</v>
@@ -1788,7 +1784,7 @@
         <v>58</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="2">
         <v>13508525057</v>
@@ -1814,7 +1810,7 @@
         <v>59</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32" s="2">
         <v>13984289839</v>
@@ -1840,7 +1836,7 @@
         <v>60</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C33" s="2">
         <v>18786321649</v>
@@ -1866,7 +1862,7 @@
         <v>61</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" s="2">
         <v>18089677296</v>
@@ -1892,7 +1888,7 @@
         <v>62</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>82</v>
@@ -1972,8 +1968,8 @@
       <c r="B38" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>82</v>
+      <c r="C38" s="3">
+        <v>13946874374</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
@@ -2050,8 +2046,8 @@
       <c r="B41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>103</v>
+      <c r="C41" s="3">
+        <v>13956314374</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
@@ -2077,7 +2073,7 @@
         <v>90</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
@@ -2103,7 +2099,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>3</v>
@@ -2129,7 +2125,7 @@
         <v>91</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
@@ -2155,7 +2151,7 @@
         <v>92</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>3</v>
@@ -2181,7 +2177,7 @@
         <v>93</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>3</v>
@@ -2207,7 +2203,7 @@
         <v>94</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>3</v>
@@ -2233,7 +2229,7 @@
         <v>95</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
@@ -2259,7 +2255,7 @@
         <v>96</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -2285,7 +2281,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>3</v>
@@ -2311,7 +2307,7 @@
         <v>98</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
